--- a/画像リストUTF8.xlsx
+++ b/画像リストUTF8.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11014"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/DATA/Yumiko/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{591DD46F-2E07-2D47-8AF3-FA446FA63ADC}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{423F8EED-8FD0-254A-B889-A4920771B84E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16400" yWindow="460" windowWidth="27900" windowHeight="16940"/>
+    <workbookView xWindow="1620" yWindow="2700" windowWidth="27900" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="画像リストUTF8" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="277">
   <si>
     <t>Area</t>
     <phoneticPr fontId="18"/>
@@ -878,11 +878,18 @@
     </rPh>
     <phoneticPr fontId="18"/>
   </si>
+  <si>
+    <t>17がギリギリで、結果はやるたびに変わる</t>
+    <rPh sb="0" eb="1">
+      <t>カワr</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19">
     <font>
       <sz val="12"/>
@@ -1836,11 +1843,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K250"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="F96" sqref="F96"/>
+    <sheetView tabSelected="1" topLeftCell="A176" workbookViewId="0">
+      <selection activeCell="K187" sqref="K187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -3204,7 +3211,7 @@
         <v>1</v>
       </c>
       <c r="E72">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G72">
         <v>3</v>
@@ -3624,9 +3631,6 @@
       <c r="E95">
         <v>20</v>
       </c>
-      <c r="F95">
-        <v>1</v>
-      </c>
       <c r="G95">
         <v>9</v>
       </c>
@@ -5077,7 +5081,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="177" spans="1:9">
+    <row r="177" spans="1:11">
       <c r="A177" s="1" t="s">
         <v>2</v>
       </c>
@@ -5094,7 +5098,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="178" spans="1:9">
+    <row r="178" spans="1:11">
       <c r="A178" s="1" t="s">
         <v>2</v>
       </c>
@@ -5111,7 +5115,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="179" spans="1:9">
+    <row r="179" spans="1:11">
       <c r="A179" s="1" t="s">
         <v>2</v>
       </c>
@@ -5128,7 +5132,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="180" spans="1:9">
+    <row r="180" spans="1:11">
       <c r="A180" s="1" t="s">
         <v>2</v>
       </c>
@@ -5145,7 +5149,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="181" spans="1:9">
+    <row r="181" spans="1:11">
       <c r="A181" s="1" t="s">
         <v>2</v>
       </c>
@@ -5162,7 +5166,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="182" spans="1:9">
+    <row r="182" spans="1:11">
       <c r="A182" s="1" t="s">
         <v>2</v>
       </c>
@@ -5179,7 +5183,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="183" spans="1:9">
+    <row r="183" spans="1:11">
       <c r="A183" s="1" t="s">
         <v>2</v>
       </c>
@@ -5196,7 +5200,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="184" spans="1:9">
+    <row r="184" spans="1:11">
       <c r="A184" s="1" t="s">
         <v>2</v>
       </c>
@@ -5213,7 +5217,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="185" spans="1:9">
+    <row r="185" spans="1:11">
       <c r="A185" s="1" t="s">
         <v>2</v>
       </c>
@@ -5230,7 +5234,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="186" spans="1:9">
+    <row r="186" spans="1:11">
       <c r="A186" s="1" t="s">
         <v>2</v>
       </c>
@@ -5244,7 +5248,7 @@
         <v>1</v>
       </c>
       <c r="E186">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G186">
         <v>9</v>
@@ -5252,8 +5256,11 @@
       <c r="I186">
         <v>15</v>
       </c>
-    </row>
-    <row r="187" spans="1:9">
+      <c r="K186" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11">
       <c r="A187" s="1" t="s">
         <v>2</v>
       </c>
@@ -5270,7 +5277,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="188" spans="1:9">
+    <row r="188" spans="1:11">
       <c r="A188" s="1" t="s">
         <v>2</v>
       </c>
@@ -5287,7 +5294,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="189" spans="1:9">
+    <row r="189" spans="1:11">
       <c r="A189" s="1" t="s">
         <v>2</v>
       </c>
@@ -5304,7 +5311,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="190" spans="1:9">
+    <row r="190" spans="1:11">
       <c r="A190" s="1" t="s">
         <v>2</v>
       </c>
@@ -5321,7 +5328,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="191" spans="1:9">
+    <row r="191" spans="1:11">
       <c r="A191" s="1" t="s">
         <v>2</v>
       </c>
@@ -5338,7 +5345,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="192" spans="1:9">
+    <row r="192" spans="1:11">
       <c r="A192" s="1" t="s">
         <v>2</v>
       </c>
